--- a/archivos/parametros_abogados.xlsx
+++ b/archivos/parametros_abogados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELEFONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDULA</t>
   </si>
   <si>
     <t xml:space="preserve">Jose Alfaro</t>
@@ -818,10 +824,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -837,53 +843,95 @@
       <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>3200000000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>3200000002</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>3200000003</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3200000004</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -921,12 +969,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -958,22 +1006,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1000,32 +1048,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="23.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>68</v>
+      <c r="A1" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>69</v>
+      <c r="A2" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>70</v>
+      <c r="A3" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>71</v>
+      <c r="A4" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>72</v>
+      <c r="A5" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1046,33 +1094,33 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="21.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>73</v>
+      <c r="A1" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>74</v>
+      <c r="A2" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>75</v>
+      <c r="A3" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>76</v>
+      <c r="A4" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/parametros_abogados.xlsx
+++ b/archivos/parametros_abogados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,18 +15,19 @@
     <sheet name="estado" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="jurisdiccion" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="parte-procesal" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="ruta" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -184,13 +185,16 @@
     <t xml:space="preserve">CEDULA</t>
   </si>
   <si>
+    <t xml:space="preserve">CODIGOQR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jose Alfaro</t>
   </si>
   <si>
     <t xml:space="preserve">josealfaro@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Andres Garcia</t>
+    <t xml:space="preserve">Juan A Gaviria</t>
   </si>
   <si>
     <t xml:space="preserve">andresgar@xxxx.com</t>
@@ -263,6 +267,18 @@
   </si>
   <si>
     <t xml:space="preserve">Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:/Users/hp  pc/Desktop/Programas practica Python/App – Reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listing directory /archivos/ </t>
   </si>
 </sst>
 </file>
@@ -416,8 +432,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -505,62 +521,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -587,14 +603,14 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="90.41"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -605,7 +621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -616,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -627,7 +643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -636,7 +652,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -647,7 +663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -658,7 +674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -669,7 +685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -680,7 +696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -691,7 +707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -702,7 +718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -713,7 +729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -724,7 +740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -735,7 +751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -746,7 +762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
@@ -757,7 +773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -765,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -773,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -781,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -789,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -797,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -813,8 +829,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -824,10 +840,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -836,7 +852,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.96"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -846,95 +862,101 @@
       <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3200000000</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3205511091</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v>3108671571</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3200000002</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3200000003</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3200000004</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="josealfaro@gmail.com"/>
@@ -948,8 +970,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -965,16 +987,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -982,8 +1004,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -999,29 +1021,29 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1029,8 +1051,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1046,34 +1068,34 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="23.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1081,8 +1103,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1098,32 +1120,79 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="21.74"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.17"/>
+  </cols>
+  <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>75</v>
+      <c r="A1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="listing directory /archivos/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/archivos/parametros_abogados.xlsx
+++ b/archivos/parametros_abogados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="jurisdiccion" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="parte-procesal" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="ruta" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="emisor" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -279,6 +280,27 @@
   </si>
   <si>
     <t xml:space="preserve">listing directory /archivos/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIUDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUFETE ABOGADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRRERA CON CALLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOGOTA</t>
   </si>
 </sst>
 </file>
@@ -395,7 +417,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,10 +452,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1163,35 +1181,35 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="57.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="listing directory /archivos/"/>
+    <hyperlink ref="B2" r:id="rId1" display="listing directory /archivos/ "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1201,4 +1219,60 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.65"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>9988776655</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/archivos/parametros_abogados.xlsx
+++ b/archivos/parametros_abogados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -228,7 +228,13 @@
     <t xml:space="preserve">EMPRESA</t>
   </si>
   <si>
+    <t xml:space="preserve">SHEETURL</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1N_nVB02dmzHTCNkufR2fmuRBY7Lf8FUbhTpqAEWRWF4/edit?gid=0#gid=0</t>
   </si>
   <si>
     <t xml:space="preserve">ESTADDOS</t>
@@ -417,7 +423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -452,6 +458,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -999,25 +1009,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="97.08"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="gid=0" display="https://docs.google.com/spreadsheets/d/1N_nVB02dmzHTCNkufR2fmuRBY7Lf8FUbhTpqAEWRWF4/edit?gid=0#gid=0"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1046,22 +1068,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1093,27 +1115,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1145,22 +1167,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1193,18 +1215,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1228,42 +1250,42 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>9988776655</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>90</v>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
